--- a/Squads/SC0/Ross County_Kilmarnock_squad.xlsx
+++ b/Squads/SC0/Ross County_Kilmarnock_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="201">
   <si>
     <t>Rk</t>
   </si>
@@ -77,97 +77,103 @@
     <t>44</t>
   </si>
   <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>204</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>101</t>
+    <t>263</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>138</t>
   </si>
   <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>246</t>
+    <t>143</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>251</t>
   </si>
   <si>
     <t>8</t>
@@ -182,34 +188,28 @@
     <t>41</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>270</t>
   </si>
   <si>
     <t>Elijah Campbell</t>
@@ -218,13 +218,22 @@
     <t>Connor Randall</t>
   </si>
   <si>
+    <t>Matty Kennedy</t>
+  </si>
+  <si>
     <t>Kacper Łopata</t>
   </si>
   <si>
     <t>Daniel Armstrong</t>
   </si>
   <si>
-    <t>Matty Kennedy</t>
+    <t>Liam Donnelly</t>
+  </si>
+  <si>
+    <t>Corrie Ndaba</t>
+  </si>
+  <si>
+    <t>Joe Wright</t>
   </si>
   <si>
     <t>Ronan Hale</t>
@@ -236,10 +245,10 @@
     <t>Jordan White</t>
   </si>
   <si>
-    <t>Corrie Ndaba</t>
-  </si>
-  <si>
-    <t>Joe Wright</t>
+    <t>Akil Wright</t>
+  </si>
+  <si>
+    <t>Brad Lyons</t>
   </si>
   <si>
     <t>Noah Chilvers</t>
@@ -254,24 +263,21 @@
     <t>Will Nightingale</t>
   </si>
   <si>
-    <t>Akil Wright</t>
-  </si>
-  <si>
     <t>Robbie Deas</t>
   </si>
   <si>
-    <t>Liam Donnelly</t>
-  </si>
-  <si>
-    <t>Brad Lyons</t>
-  </si>
-  <si>
     <t>Lewis Mayo</t>
   </si>
   <si>
     <t>Liam Polworth</t>
   </si>
   <si>
+    <t>Kyle Vassell</t>
+  </si>
+  <si>
+    <t>Marley Watkins</t>
+  </si>
+  <si>
     <t>Scott Allardice</t>
   </si>
   <si>
@@ -338,30 +344,24 @@
     <t>Kieran O'Hara</t>
   </si>
   <si>
-    <t>Kyle Vassell</t>
-  </si>
-  <si>
     <t>Bobby Wales</t>
   </si>
   <si>
-    <t>Marley Watkins</t>
-  </si>
-  <si>
     <t>David Watson</t>
   </si>
   <si>
     <t>eng ENG</t>
   </si>
   <si>
+    <t>nir NIR</t>
+  </si>
+  <si>
     <t>pl POL</t>
   </si>
   <si>
     <t>sct SCO</t>
   </si>
   <si>
-    <t>nir NIR</t>
-  </si>
-  <si>
     <t>ie IRL</t>
   </si>
   <si>
@@ -383,166 +383,166 @@
     <t>MF</t>
   </si>
   <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
     <t>DF</t>
   </si>
   <si>
-    <t>MF,FW</t>
+    <t>DF,MF</t>
   </si>
   <si>
     <t>FW</t>
   </si>
   <si>
-    <t>DF,MF</t>
+    <t>FW,MF</t>
   </si>
   <si>
     <t>GK</t>
   </si>
   <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
     <t>Ross County</t>
   </si>
   <si>
     <t>Kilmarnock</t>
   </si>
   <si>
-    <t>20-084</t>
-  </si>
-  <si>
-    <t>29-004</t>
-  </si>
-  <si>
-    <t>23-059</t>
-  </si>
-  <si>
-    <t>27-014</t>
-  </si>
-  <si>
-    <t>29-359</t>
+    <t>20-099</t>
+  </si>
+  <si>
+    <t>29-019</t>
+  </si>
+  <si>
+    <t>30-008</t>
+  </si>
+  <si>
+    <t>23-074</t>
+  </si>
+  <si>
+    <t>27-029</t>
+  </si>
+  <si>
+    <t>28-247</t>
+  </si>
+  <si>
+    <t>24-320</t>
+  </si>
+  <si>
+    <t>29-257</t>
+  </si>
+  <si>
+    <t>26-062</t>
+  </si>
+  <si>
+    <t>26-255</t>
+  </si>
+  <si>
+    <t>32-279</t>
+  </si>
+  <si>
+    <t>28-149</t>
+  </si>
+  <si>
+    <t>27-167</t>
+  </si>
+  <si>
+    <t>23-261</t>
+  </si>
+  <si>
+    <t>25-243</t>
+  </si>
+  <si>
+    <t>23-337</t>
+  </si>
+  <si>
+    <t>29-099</t>
+  </si>
+  <si>
+    <t>24-256</t>
+  </si>
+  <si>
+    <t>24-235</t>
+  </si>
+  <si>
+    <t>30-028</t>
+  </si>
+  <si>
+    <t>31-276</t>
+  </si>
+  <si>
+    <t>34-023</t>
+  </si>
+  <si>
+    <t>26-223</t>
+  </si>
+  <si>
+    <t>28-244</t>
+  </si>
+  <si>
+    <t>26-158</t>
+  </si>
+  <si>
+    <t>21-000</t>
+  </si>
+  <si>
+    <t>19-340</t>
+  </si>
+  <si>
+    <t>32-120</t>
+  </si>
+  <si>
+    <t>23-172</t>
+  </si>
+  <si>
+    <t>25-147</t>
+  </si>
+  <si>
+    <t>22-190</t>
+  </si>
+  <si>
+    <t>18-364</t>
+  </si>
+  <si>
+    <t>29-050</t>
+  </si>
+  <si>
+    <t>29-128</t>
   </si>
   <si>
     <t>26-047</t>
   </si>
   <si>
-    <t>26-240</t>
-  </si>
-  <si>
-    <t>32-264</t>
-  </si>
-  <si>
-    <t>24-305</t>
-  </si>
-  <si>
-    <t>29-242</t>
-  </si>
-  <si>
-    <t>23-246</t>
-  </si>
-  <si>
-    <t>25-228</t>
-  </si>
-  <si>
-    <t>23-322</t>
-  </si>
-  <si>
-    <t>29-084</t>
-  </si>
-  <si>
-    <t>28-134</t>
-  </si>
-  <si>
-    <t>24-241</t>
-  </si>
-  <si>
-    <t>28-232</t>
-  </si>
-  <si>
-    <t>27-152</t>
-  </si>
-  <si>
-    <t>24-220</t>
-  </si>
-  <si>
-    <t>30-013</t>
-  </si>
-  <si>
-    <t>26-208</t>
-  </si>
-  <si>
-    <t>28-229</t>
-  </si>
-  <si>
-    <t>26-143</t>
-  </si>
-  <si>
-    <t>20-351</t>
-  </si>
-  <si>
-    <t>19-325</t>
-  </si>
-  <si>
-    <t>32-105</t>
-  </si>
-  <si>
-    <t>23-157</t>
-  </si>
-  <si>
-    <t>25-132</t>
-  </si>
-  <si>
-    <t>22-175</t>
-  </si>
-  <si>
-    <t>18-349</t>
-  </si>
-  <si>
-    <t>29-035</t>
-  </si>
-  <si>
-    <t>29-113</t>
-  </si>
-  <si>
-    <t>26-032</t>
-  </si>
-  <si>
-    <t>19-143</t>
-  </si>
-  <si>
-    <t>23-218</t>
-  </si>
-  <si>
-    <t>24-064</t>
-  </si>
-  <si>
-    <t>29-041</t>
-  </si>
-  <si>
-    <t>34-055</t>
-  </si>
-  <si>
-    <t>26-221</t>
-  </si>
-  <si>
-    <t>31-018</t>
-  </si>
-  <si>
-    <t>25-171</t>
-  </si>
-  <si>
-    <t>28-186</t>
-  </si>
-  <si>
-    <t>31-261</t>
-  </si>
-  <si>
-    <t>19-124</t>
-  </si>
-  <si>
-    <t>34-008</t>
-  </si>
-  <si>
-    <t>19-256</t>
+    <t>19-158</t>
+  </si>
+  <si>
+    <t>23-233</t>
+  </si>
+  <si>
+    <t>24-079</t>
+  </si>
+  <si>
+    <t>29-056</t>
+  </si>
+  <si>
+    <t>34-070</t>
+  </si>
+  <si>
+    <t>26-236</t>
+  </si>
+  <si>
+    <t>31-033</t>
+  </si>
+  <si>
+    <t>25-186</t>
+  </si>
+  <si>
+    <t>28-201</t>
+  </si>
+  <si>
+    <t>19-139</t>
+  </si>
+  <si>
+    <t>19-271</t>
   </si>
   <si>
     <t>2004</t>
@@ -551,13 +551,19 @@
     <t>1995</t>
   </si>
   <si>
+    <t>1994</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
-    <t>1994</t>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1999</t>
   </si>
   <si>
     <t>1998</t>
@@ -566,13 +572,13 @@
     <t>1992</t>
   </si>
   <si>
-    <t>1999</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>1996</t>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1990</t>
   </si>
   <si>
     <t>2003</t>
@@ -584,31 +590,31 @@
     <t>2005</t>
   </si>
   <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1993</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>9</t>
+    <t>3</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -748,37 +754,37 @@
         <v>177</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="J2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>581.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
         <v>5.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.0</v>
       </c>
       <c r="T2" t="n">
         <v>1.0</v>
@@ -792,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>204.0</v>
+        <v>208.0</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -813,16 +819,16 @@
         <v>178</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>787.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L3" t="n">
-        <v>8.7</v>
+        <v>11.5</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -843,7 +849,7 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -857,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>278.0</v>
+        <v>128.0</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -869,7 +875,7 @@
         <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
         <v>133</v>
@@ -878,28 +884,28 @@
         <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J4" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="K4" t="n">
-        <v>494.0</v>
+        <v>865.0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
@@ -908,13 +914,13 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -922,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0</v>
+        <v>283.0</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -931,10 +937,10 @@
         <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -943,25 +949,25 @@
         <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="J5" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="K5" t="n">
-        <v>562.0</v>
+        <v>764.0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
@@ -987,7 +993,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>126.0</v>
+        <v>10.0</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -996,7 +1002,7 @@
         <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
         <v>130</v>
@@ -1008,28 +1014,28 @@
         <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="J6" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="K6" t="n">
-        <v>606.0</v>
+        <v>772.0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="M6" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O6" t="n">
         <v>3.0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
@@ -1044,7 +1050,7 @@
         <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1052,19 +1058,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>101.0</v>
+        <v>68.0</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
         <v>136</v>
@@ -1073,43 +1079,43 @@
         <v>182</v>
       </c>
       <c r="I7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J7" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="K7" t="n">
-        <v>720.0</v>
+        <v>372.0</v>
       </c>
       <c r="L7" t="n">
-        <v>8.0</v>
+        <v>4.1</v>
       </c>
       <c r="M7" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
       </c>
       <c r="O7" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -1117,49 +1123,49 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>138.0</v>
+        <v>184.0</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
         <v>137</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
         <v>194</v>
       </c>
       <c r="J8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K8" t="n">
-        <v>616.0</v>
+        <v>717.0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>8.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
@@ -1168,13 +1174,13 @@
         <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -1182,43 +1188,43 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>268.0</v>
+        <v>278.0</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
         <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K9" t="n">
-        <v>521.0</v>
+        <v>320.0</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O9" t="n">
         <v>1.0</v>
@@ -1227,19 +1233,19 @@
         <v>0.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.0</v>
       </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1247,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>180.0</v>
+        <v>103.0</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -1256,10 +1262,10 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
         <v>139</v>
@@ -1271,31 +1277,31 @@
         <v>192</v>
       </c>
       <c r="J10" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="K10" t="n">
-        <v>447.0</v>
+        <v>901.0</v>
       </c>
       <c r="L10" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S10" t="n">
         <v>2.0</v>
@@ -1304,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>273.0</v>
+        <v>141.0</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -1321,28 +1327,28 @@
         <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="K11" t="n">
-        <v>149.0</v>
+        <v>770.0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.7</v>
+        <v>8.6</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
@@ -1366,7 +1372,7 @@
         <v>2.0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
@@ -1377,16 +1383,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>51.0</v>
+        <v>273.0</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
         <v>129</v>
@@ -1395,46 +1401,46 @@
         <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="K12" t="n">
-        <v>343.0</v>
+        <v>761.0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13">
@@ -1442,16 +1448,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>74.0</v>
+        <v>276.0</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
         <v>129</v>
@@ -1460,31 +1466,31 @@
         <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>363.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L13" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
@@ -1493,13 +1499,13 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
@@ -1507,37 +1513,37 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>104.0</v>
+        <v>144.0</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="J14" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="K14" t="n">
-        <v>364.0</v>
+        <v>773.0</v>
       </c>
       <c r="L14" t="n">
-        <v>4.0</v>
+        <v>8.6</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
@@ -1558,10 +1564,10 @@
         <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
@@ -1572,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>183.0</v>
+        <v>51.0</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -1581,7 +1587,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
         <v>129</v>
@@ -1590,28 +1596,28 @@
         <v>144</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K15" t="n">
-        <v>270.0</v>
+        <v>549.0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.0</v>
+        <v>6.1</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
@@ -1637,16 +1643,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>271.0</v>
+        <v>76.0</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
         <v>129</v>
@@ -1655,31 +1661,31 @@
         <v>145</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J16" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="K16" t="n">
-        <v>810.0</v>
+        <v>392.0</v>
       </c>
       <c r="L16" t="n">
-        <v>9.0</v>
+        <v>4.4</v>
       </c>
       <c r="M16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -1694,7 +1700,7 @@
         <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -1702,37 +1708,37 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>59.0</v>
+        <v>106.0</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
         <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="J17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="L17" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>417.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.6</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
@@ -1767,37 +1773,37 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>68.0</v>
+        <v>187.0</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
         <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="J18" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K18" t="n">
-        <v>313.0</v>
+        <v>270.0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -1832,7 +1838,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>141.0</v>
+        <v>59.0</v>
       </c>
       <c r="C19" t="s">
         <v>83</v>
@@ -1841,7 +1847,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
         <v>130</v>
@@ -1850,19 +1856,19 @@
         <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K19" t="n">
-        <v>503.0</v>
+        <v>687.0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
@@ -1886,7 +1892,7 @@
         <v>1.0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
@@ -1897,16 +1903,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
         <v>130</v>
@@ -1915,19 +1921,19 @@
         <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="J20" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="K20" t="n">
-        <v>596.0</v>
+        <v>866.0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
@@ -1962,13 +1968,13 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>200.0</v>
+        <v>204.0</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
         <v>122</v>
@@ -1980,10 +1986,10 @@
         <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J21" t="n">
         <v>4.0</v>
@@ -2027,49 +2033,49 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>5.0</v>
+        <v>263.0</v>
       </c>
       <c r="C22" t="s">
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
         <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0</v>
+        <v>757.0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -2078,13 +2084,13 @@
         <v>0.0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
@@ -2092,64 +2098,64 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>30.0</v>
+        <v>269.0</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
         <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="J23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M23" t="n">
         <v>3.0</v>
       </c>
-      <c r="K23" t="n">
-        <v>188.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="24">
@@ -2157,16 +2163,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -2175,19 +2181,19 @@
         <v>153</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J24" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K24" t="n">
-        <v>463.0</v>
+        <v>221.0</v>
       </c>
       <c r="L24" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
@@ -2222,16 +2228,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="C25" t="s">
         <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
         <v>129</v>
@@ -2240,28 +2246,28 @@
         <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="J25" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K25" t="n">
-        <v>353.0</v>
+        <v>232.0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -2270,7 +2276,7 @@
         <v>0.0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S25" t="n">
         <v>0.0</v>
@@ -2287,16 +2293,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>98.0</v>
+        <v>32.0</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
         <v>129</v>
@@ -2305,28 +2311,28 @@
         <v>155</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K26" t="n">
-        <v>247.0</v>
+        <v>733.0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.7</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" t="n">
         <v>0.0</v>
@@ -2352,16 +2358,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>135.0</v>
+        <v>60.0</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
@@ -2370,28 +2376,28 @@
         <v>156</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
         <v>193</v>
       </c>
       <c r="J27" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="K27" t="n">
-        <v>810.0</v>
+        <v>534.0</v>
       </c>
       <c r="L27" t="n">
-        <v>9.0</v>
+        <v>5.9</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P27" t="n">
         <v>0.0</v>
@@ -2417,16 +2423,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>140.0</v>
+        <v>100.0</v>
       </c>
       <c r="C28" t="s">
         <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
@@ -2435,28 +2441,28 @@
         <v>157</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J28" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K28" t="n">
-        <v>243.0</v>
+        <v>292.0</v>
       </c>
       <c r="L28" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P28" t="n">
         <v>0.0</v>
@@ -2482,16 +2488,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>184.0</v>
+        <v>138.0</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -2500,28 +2506,28 @@
         <v>158</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J29" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>479.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L29" t="n">
-        <v>5.3</v>
+        <v>12.0</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="n">
         <v>0.0</v>
@@ -2547,16 +2553,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>207.0</v>
+        <v>143.0</v>
       </c>
       <c r="C30" t="s">
         <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
         <v>129</v>
@@ -2565,19 +2571,19 @@
         <v>159</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
         <v>197</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K30" t="n">
-        <v>55.0</v>
+        <v>245.0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
@@ -2612,16 +2618,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>210.0</v>
+        <v>188.0</v>
       </c>
       <c r="C31" t="s">
         <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
         <v>129</v>
@@ -2630,28 +2636,28 @@
         <v>160</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.0</v>
+        <v>602.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
@@ -2677,16 +2683,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>216.0</v>
+        <v>211.0</v>
       </c>
       <c r="C32" t="s">
         <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
         <v>129</v>
@@ -2695,31 +2701,31 @@
         <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K32" t="n">
-        <v>121.0</v>
+        <v>206.0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
@@ -2734,7 +2740,7 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.74</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -2742,16 +2748,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>246.0</v>
+        <v>214.0</v>
       </c>
       <c r="C33" t="s">
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
         <v>129</v>
@@ -2760,16 +2766,16 @@
         <v>162</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J33" t="n">
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="L33" t="n">
         <v>0.1</v>
@@ -2796,7 +2802,7 @@
         <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
@@ -2807,43 +2813,43 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>8.0</v>
+        <v>220.0</v>
       </c>
       <c r="C34" t="s">
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
         <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="J34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>197.0</v>
+        <v>177.0</v>
       </c>
       <c r="L34" t="n">
-        <v>2.2</v>
+        <v>2.0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O34" t="n">
         <v>2.0</v>
@@ -2852,10 +2858,10 @@
         <v>1.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S34" t="n">
         <v>0.0</v>
@@ -2864,7 +2870,7 @@
         <v>0.0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.91</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="35">
@@ -2872,37 +2878,37 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>14.0</v>
+        <v>251.0</v>
       </c>
       <c r="C35" t="s">
         <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
         <v>164</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>93.0</v>
+        <v>6.0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
@@ -2926,7 +2932,7 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
@@ -2937,13 +2943,13 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" t="s">
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>126</v>
@@ -2955,37 +2961,37 @@
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="L36" t="n">
         <v>3.0</v>
       </c>
-      <c r="K36" t="n">
-        <v>258.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.9</v>
-      </c>
       <c r="M36" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S36" t="n">
         <v>0.0</v>
@@ -2994,7 +3000,7 @@
         <v>0.0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="37">
@@ -3002,16 +3008,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
         <v>130</v>
@@ -3020,19 +3026,19 @@
         <v>166</v>
       </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="J37" t="n">
         <v>1.0</v>
       </c>
       <c r="K37" t="n">
-        <v>128.0</v>
+        <v>101.0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M37" t="n">
         <v>0.0</v>
@@ -3067,16 +3073,16 @@
         <v>56</v>
       </c>
       <c r="B38" t="n">
-        <v>80.0</v>
+        <v>33.0</v>
       </c>
       <c r="C38" t="s">
         <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
         <v>130</v>
@@ -3085,19 +3091,19 @@
         <v>167</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I38" t="s">
         <v>194</v>
       </c>
       <c r="J38" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K38" t="n">
-        <v>558.0</v>
+        <v>332.0</v>
       </c>
       <c r="L38" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="M38" t="n">
         <v>0.0</v>
@@ -3132,16 +3138,16 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>142.0</v>
+        <v>41.0</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
         <v>130</v>
@@ -3150,28 +3156,28 @@
         <v>168</v>
       </c>
       <c r="H39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K39" t="n">
-        <v>45.0</v>
+        <v>153.0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="M39" t="n">
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P39" t="n">
         <v>0.0</v>
@@ -3197,16 +3203,16 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>157.0</v>
+        <v>82.0</v>
       </c>
       <c r="C40" t="s">
         <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
         <v>130</v>
@@ -3215,19 +3221,19 @@
         <v>169</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J40" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="K40" t="n">
-        <v>360.0</v>
+        <v>635.0</v>
       </c>
       <c r="L40" t="n">
-        <v>4.0</v>
+        <v>7.1</v>
       </c>
       <c r="M40" t="n">
         <v>0.0</v>
@@ -3262,13 +3268,13 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>163.0</v>
+        <v>145.0</v>
       </c>
       <c r="C41" t="s">
         <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
         <v>122</v>
@@ -3280,28 +3286,28 @@
         <v>170</v>
       </c>
       <c r="H41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>127.0</v>
+        <v>45.0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="M41" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P41" t="n">
         <v>0.0</v>
@@ -3327,16 +3333,16 @@
         <v>60</v>
       </c>
       <c r="B42" t="n">
-        <v>178.0</v>
+        <v>160.0</v>
       </c>
       <c r="C42" t="s">
         <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
         <v>130</v>
@@ -3348,16 +3354,16 @@
         <v>184</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="J42" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="K42" t="n">
-        <v>192.0</v>
+        <v>630.0</v>
       </c>
       <c r="L42" t="n">
-        <v>2.1</v>
+        <v>7.0</v>
       </c>
       <c r="M42" t="n">
         <v>0.0</v>
@@ -3392,16 +3398,16 @@
         <v>61</v>
       </c>
       <c r="B43" t="n">
-        <v>187.0</v>
+        <v>166.0</v>
       </c>
       <c r="C43" t="s">
         <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
         <v>130</v>
@@ -3410,19 +3416,19 @@
         <v>172</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="J43" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K43" t="n">
-        <v>360.0</v>
+        <v>157.0</v>
       </c>
       <c r="L43" t="n">
-        <v>4.0</v>
+        <v>1.7</v>
       </c>
       <c r="M43" t="n">
         <v>0.0</v>
@@ -3457,7 +3463,7 @@
         <v>62</v>
       </c>
       <c r="B44" t="n">
-        <v>258.0</v>
+        <v>182.0</v>
       </c>
       <c r="C44" t="s">
         <v>108</v>
@@ -3466,7 +3472,7 @@
         <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F44" t="s">
         <v>130</v>
@@ -3475,19 +3481,19 @@
         <v>173</v>
       </c>
       <c r="H44" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J44" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="K44" t="n">
-        <v>517.0</v>
+        <v>200.0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="M44" t="n">
         <v>0.0</v>
@@ -3522,16 +3528,16 @@
         <v>63</v>
       </c>
       <c r="B45" t="n">
-        <v>262.0</v>
+        <v>191.0</v>
       </c>
       <c r="C45" t="s">
         <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F45" t="s">
         <v>130</v>
@@ -3540,28 +3546,28 @@
         <v>174</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K45" t="n">
-        <v>48.0</v>
+        <v>360.0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5</v>
+        <v>4.0</v>
       </c>
       <c r="M45" t="n">
         <v>0.0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P45" t="n">
         <v>0.0</v>
@@ -3587,16 +3593,16 @@
         <v>64</v>
       </c>
       <c r="B46" t="n">
-        <v>264.0</v>
+        <v>267.0</v>
       </c>
       <c r="C46" t="s">
         <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
         <v>130</v>
@@ -3605,31 +3611,31 @@
         <v>175</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I46" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J46" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>455.0</v>
+        <v>48.0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="M46" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="P46" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q46" t="n">
         <v>0.0</v>
@@ -3644,7 +3650,7 @@
         <v>0.0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -3652,13 +3658,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>265.0</v>
+        <v>270.0</v>
       </c>
       <c r="C47" t="s">
         <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>122</v>
@@ -3670,19 +3676,19 @@
         <v>176</v>
       </c>
       <c r="H47" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="J47" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K47" t="n">
-        <v>483.0</v>
+        <v>668.0</v>
       </c>
       <c r="L47" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="M47" t="n">
         <v>2.0</v>
@@ -3709,7 +3715,7 @@
         <v>0.0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
